--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -7,17 +7,71 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Get" sheetId="1" r:id="rId1"/>
+    <sheet name="Post" sheetId="2" r:id="rId2"/>
+    <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Put" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>BaseURI</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Expected_Value</t>
+  </si>
+  <si>
+    <t>Tc_02</t>
+  </si>
+  <si>
+    <t>Tc_03</t>
+  </si>
+  <si>
+    <t>Tc_04</t>
+  </si>
+  <si>
+    <t>Tc_05</t>
+  </si>
+  <si>
+    <t>Tc_06</t>
+  </si>
+  <si>
+    <t>Tc_07</t>
+  </si>
+  <si>
+    <t>Tc_08</t>
+  </si>
+  <si>
+    <t>Tc_09</t>
+  </si>
+  <si>
+    <t>https://api.twitter.com</t>
+  </si>
+  <si>
+    <t>/1.1/statuses/home_timeline.json</t>
+  </si>
+  <si>
+    <t>Tc_01_GetStatus_Timeline</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +79,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF434548"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +117,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,9 +435,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -352,11 +622,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -364,11 +636,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
